--- a/data/input/absenteeism_data_40.xlsx
+++ b/data/input/absenteeism_data_40.xlsx
@@ -476,21 +476,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>80692</v>
+        <v>1608</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nicole Monteiro</t>
+          <t>Manuela da Rosa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -500,21 +500,21 @@
         <v>45092</v>
       </c>
       <c r="G2" t="n">
-        <v>7157.97</v>
+        <v>5873.78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>44759</v>
+        <v>64146</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dr. Luiz Fernando Novaes</t>
+          <t>Yasmin Campos</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -526,227 +526,227 @@
         <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45105</v>
+        <v>45085</v>
       </c>
       <c r="G3" t="n">
-        <v>9210.950000000001</v>
+        <v>5289.62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>77428</v>
+        <v>74885</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sophia Costa</t>
+          <t>Emanuel Carvalho</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45100</v>
+        <v>45086</v>
       </c>
       <c r="G4" t="n">
-        <v>4728.87</v>
+        <v>9555.700000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3745</v>
+        <v>4562</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Srta. Kamilly Nascimento</t>
+          <t>Sr. Benjamin Costela</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>6</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45100</v>
+        <v>45096</v>
       </c>
       <c r="G5" t="n">
-        <v>2973.67</v>
+        <v>3243.78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>97308</v>
+        <v>68418</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dra. Clara Jesus</t>
+          <t>Benício Cardoso</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45079</v>
+        <v>45093</v>
       </c>
       <c r="G6" t="n">
-        <v>8178.77</v>
+        <v>8305.110000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>41699</v>
+        <v>85652</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Emanuella Novaes</t>
+          <t>Isabella da Mota</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45093</v>
+        <v>45106</v>
       </c>
       <c r="G7" t="n">
-        <v>10906.27</v>
+        <v>3231.64</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>84867</v>
+        <v>2936</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nicolas da Mata</t>
+          <t>Cauã Moraes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45095</v>
+        <v>45090</v>
       </c>
       <c r="G8" t="n">
-        <v>11961.4</v>
+        <v>6634.01</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>83232</v>
+        <v>13884</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Otávio da Rosa</t>
+          <t>Eloah Gonçalves</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45090</v>
+        <v>45080</v>
       </c>
       <c r="G9" t="n">
-        <v>6992.1</v>
+        <v>9796.030000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>58198</v>
+        <v>47874</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Enzo Gabriel Mendes</t>
+          <t>Leonardo Fernandes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>7</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45102</v>
+        <v>45101</v>
       </c>
       <c r="G10" t="n">
-        <v>5978.26</v>
+        <v>11375.85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>25299</v>
+        <v>94628</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Isabella Vieira</t>
+          <t>Gabriel Farias</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45089</v>
+        <v>45092</v>
       </c>
       <c r="G11" t="n">
-        <v>3702.75</v>
+        <v>2858.77</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_40.xlsx
+++ b/data/input/absenteeism_data_40.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1608</v>
+        <v>10559</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Manuela da Rosa</t>
+          <t>Marina Vieira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,109 +494,109 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45092</v>
+        <v>45088</v>
       </c>
       <c r="G2" t="n">
-        <v>5873.78</v>
+        <v>6435.95</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>64146</v>
+        <v>61634</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Yasmin Campos</t>
+          <t>Sr. Nathan Pereira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45085</v>
+        <v>45093</v>
       </c>
       <c r="G3" t="n">
-        <v>5289.62</v>
+        <v>7331.06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>74885</v>
+        <v>95656</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Emanuel Carvalho</t>
+          <t>Nicolas Caldeira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45086</v>
+        <v>45106</v>
       </c>
       <c r="G4" t="n">
-        <v>9555.700000000001</v>
+        <v>7591.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4562</v>
+        <v>64875</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sr. Benjamin Costela</t>
+          <t>Amanda Vieira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45096</v>
+        <v>45097</v>
       </c>
       <c r="G5" t="n">
-        <v>3243.78</v>
+        <v>11421.36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>68418</v>
+        <v>65373</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Benício Cardoso</t>
+          <t>André Silva</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,118 +606,118 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45093</v>
+        <v>45090</v>
       </c>
       <c r="G6" t="n">
-        <v>8305.110000000001</v>
+        <v>10068.43</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>85652</v>
+        <v>27185</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Isabella da Mota</t>
+          <t>Thales Castro</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45106</v>
+        <v>45099</v>
       </c>
       <c r="G7" t="n">
-        <v>3231.64</v>
+        <v>9060.66</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2936</v>
+        <v>85424</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cauã Moraes</t>
+          <t>Ana Lívia Monteiro</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45090</v>
+        <v>45094</v>
       </c>
       <c r="G8" t="n">
-        <v>6634.01</v>
+        <v>7306.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>13884</v>
+        <v>82436</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Eloah Gonçalves</t>
+          <t>Caroline Moreira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45080</v>
+        <v>45090</v>
       </c>
       <c r="G9" t="n">
-        <v>9796.030000000001</v>
+        <v>11444.94</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>47874</v>
+        <v>41457</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Leonardo Fernandes</t>
+          <t>Sra. Alana Nogueira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,27 +726,27 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45101</v>
+        <v>45091</v>
       </c>
       <c r="G10" t="n">
-        <v>11375.85</v>
+        <v>4810.63</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>94628</v>
+        <v>66515</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Gabriel Farias</t>
+          <t>Emanuel Freitas</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45092</v>
+        <v>45104</v>
       </c>
       <c r="G11" t="n">
-        <v>2858.77</v>
+        <v>7348.26</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_40.xlsx
+++ b/data/input/absenteeism_data_40.xlsx
@@ -476,161 +476,161 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10559</v>
+        <v>54288</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marina Vieira</t>
+          <t>Sr. Anthony Peixoto</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45088</v>
+        <v>45104</v>
       </c>
       <c r="G2" t="n">
-        <v>6435.95</v>
+        <v>2718.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>61634</v>
+        <v>87728</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sr. Nathan Pereira</t>
+          <t>Srta. Letícia Silva</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45093</v>
+        <v>45081</v>
       </c>
       <c r="G3" t="n">
-        <v>7331.06</v>
+        <v>7609.33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>95656</v>
+        <v>87139</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nicolas Caldeira</t>
+          <t>Maria Alice Lima</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45106</v>
+        <v>45096</v>
       </c>
       <c r="G4" t="n">
-        <v>7591.4</v>
+        <v>4405.07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>64875</v>
+        <v>20978</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Amanda Vieira</t>
+          <t>João Guilherme Farias</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45097</v>
+        <v>45093</v>
       </c>
       <c r="G5" t="n">
-        <v>11421.36</v>
+        <v>8761.33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>65373</v>
+        <v>32008</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>André Silva</t>
+          <t>Thomas Fernandes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45090</v>
+        <v>45086</v>
       </c>
       <c r="G6" t="n">
-        <v>10068.43</v>
+        <v>9579.58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>27185</v>
+        <v>46379</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Thales Castro</t>
+          <t>Sr. Enrico Lima</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -642,82 +642,82 @@
         <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45099</v>
+        <v>45089</v>
       </c>
       <c r="G7" t="n">
-        <v>9060.66</v>
+        <v>7119.06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>85424</v>
+        <v>53341</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ana Lívia Monteiro</t>
+          <t>Ana Sophia Mendes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45094</v>
+        <v>45088</v>
       </c>
       <c r="G8" t="n">
-        <v>7306.7</v>
+        <v>9407.33</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>82436</v>
+        <v>46987</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Caroline Moreira</t>
+          <t>Srta. Cecília Ferreira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45090</v>
+        <v>45097</v>
       </c>
       <c r="G9" t="n">
-        <v>11444.94</v>
+        <v>10046.31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>41457</v>
+        <v>72452</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sra. Alana Nogueira</t>
+          <t>Melissa Carvalho</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45091</v>
+        <v>45080</v>
       </c>
       <c r="G10" t="n">
-        <v>4810.63</v>
+        <v>7491.6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>66515</v>
+        <v>90985</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Emanuel Freitas</t>
+          <t>Pietro Santos</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45104</v>
+        <v>45081</v>
       </c>
       <c r="G11" t="n">
-        <v>7348.26</v>
+        <v>10546.22</v>
       </c>
     </row>
   </sheetData>
